--- a/Map Registers.xlsx
+++ b/Map Registers.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D9D330-6ACB-4578-A02F-5A4C2F6CA16D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -13,14 +12,14 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$F$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$F$14</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>Десятичная</t>
   </si>
@@ -130,13 +129,19 @@
   </si>
   <si>
     <t>0x00 - 0x64</t>
+  </si>
+  <si>
+    <t>0x10</t>
+  </si>
+  <si>
+    <t>Сохранение настроек</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,8 +157,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,8 +191,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -321,17 +339,82 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
@@ -399,9 +482,32 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="1" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -464,7 +570,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -496,27 +602,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -548,24 +636,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -741,14 +811,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BI18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" style="1" customWidth="1"/>
@@ -759,285 +829,285 @@
     <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" ht="21.6" customHeight="1" thickBot="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:6" ht="61.5" customHeight="1" thickBot="1">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" ht="45.75" thickBot="1">
+      <c r="A4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>2</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>3</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="14" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:6" ht="45.75" thickBot="1">
+      <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>4</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>5</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:6" ht="45.75" thickBot="1">
+      <c r="A8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>6</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="29">
         <v>7</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14" t="s">
+      <c r="D9" s="29"/>
+      <c r="E9" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A10" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="33">
         <v>8</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="31"/>
+      <c r="D10" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A11" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="18">
+        <v>9</v>
+      </c>
+      <c r="C11" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D11" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A12" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="18">
+        <v>10</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A13" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="18">
+        <v>11</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A14" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="18">
+        <v>12</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A15" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="18">
+        <v>13</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A16" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="21">
         <v>14</v>
       </c>
-      <c r="B11" s="19">
-        <v>9</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
+    </row>
+    <row r="17" spans="1:61" s="3" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A17" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="18">
         <v>15</v>
       </c>
-      <c r="B12" s="19">
-        <v>10</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="19">
-        <v>11</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="19">
-        <v>12</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="19">
-        <v>13</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="20"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="22">
-        <v>14</v>
-      </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="25"/>
-    </row>
-    <row r="17" spans="1:61" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="19">
-        <v>15</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="19"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="23"/>
-      <c r="F17" s="26"/>
+      <c r="F17" s="24"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1094,31 +1164,37 @@
       <c r="BH17" s="2"/>
       <c r="BI17" s="2"/>
     </row>
-    <row r="18" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+    <row r="18" spans="1:61" ht="15.75" thickBot="1">
+      <c r="A18" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="18">
+        <v>16</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="75" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="13" max="5" man="1"/>
+    <brk id="14" max="5" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -1126,12 +1202,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/Map Registers.xlsx
+++ b/Map Registers.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>Десятичная</t>
   </si>
@@ -90,16 +90,7 @@
     <t>0x0F</t>
   </si>
   <si>
-    <t>Mode</t>
-  </si>
-  <si>
     <t>SlaveAddress</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>WriteInEEPROM</t>
   </si>
   <si>
     <t xml:space="preserve">скорость обмена данными
@@ -121,13 +112,6 @@
     <t>регистр управления каналом</t>
   </si>
   <si>
-    <t>ch1_DIM</t>
-  </si>
-  <si>
-    <t>0-режим ключа
-1-режим демирования</t>
-  </si>
-  <si>
     <t>0x00 - 0x64</t>
   </si>
   <si>
@@ -135,6 +119,9 @@
   </si>
   <si>
     <t>Сохранение настроек</t>
+  </si>
+  <si>
+    <t>11520 (115200)</t>
   </si>
 </sst>
 </file>
@@ -166,7 +153,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,8 +183,14 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -288,88 +281,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -411,7 +326,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -431,79 +346,57 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -815,7 +708,7 @@
   <dimension ref="A1:BI18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -857,15 +750,15 @@
         <v>0</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="10">
+        <v>29</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="9">
         <v>0</v>
       </c>
     </row>
@@ -873,241 +766,217 @@
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="11">
         <v>1</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="11"/>
+        <v>26</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="E3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" spans="1:6" ht="45.75" thickBot="1">
-      <c r="A4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="8">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="15">
+      <c r="E4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="11">
         <v>3</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="15">
+      <c r="C5" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45.75" thickBot="1">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1">
       <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="8">
         <v>4</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="11">
         <v>5</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="23"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="11">
+        <v>7</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A10" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="26">
+        <v>8</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="14">
+        <v>9</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="45.75" thickBot="1">
-      <c r="A8" s="12" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="14">
+        <v>10</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="14">
         <v>11</v>
       </c>
-      <c r="B8" s="13">
-        <v>6</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="28" t="s">
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="14">
         <v>12</v>
       </c>
-      <c r="B9" s="29">
-        <v>7</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A10" s="32" t="s">
+      <c r="C14" s="27"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="14">
         <v>13</v>
       </c>
-      <c r="B10" s="33">
-        <v>8</v>
-      </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A11" s="17" t="s">
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A16" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="14">
         <v>14</v>
       </c>
-      <c r="B11" s="18">
-        <v>9</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A12" s="17" t="s">
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+    </row>
+    <row r="17" spans="1:61" s="3" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="14">
         <v>15</v>
       </c>
-      <c r="B12" s="18">
-        <v>10</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A13" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="18">
-        <v>11</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A14" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="18">
-        <v>12</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A15" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="18">
-        <v>13</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A16" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="21">
-        <v>14</v>
-      </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
-    </row>
-    <row r="17" spans="1:61" s="3" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A17" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="18">
-        <v>15</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1165,17 +1034,15 @@
       <c r="BI17" s="2"/>
     </row>
     <row r="18" spans="1:61" ht="15.75" thickBot="1">
-      <c r="A18" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="18">
+      <c r="A18" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="14">
         <v>16</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="22"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
       <c r="F18" s="25"/>
     </row>
   </sheetData>
